--- a/biology/Histoire de la zoologie et de la botanique/John_Whitehead/John_Whitehead.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Whitehead/John_Whitehead.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Whitehead est un naturaliste et un explorateur britannique, né le 30 juin 1860 et mort le 2 juin 1899.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Whitehead voyage à Bornéo de 1885 à 1888 où il rassemble une collection de spécimens nouveaux pour la science, notamment l’eurylaime de Whitehead (Calyptomena whiteheadi). À son retour, il fait paraître The Explorations of Mount Kina-Balu, North Borneo en 1893. De 1893 à 1896, il explore les Philippines où il rassemble à nouveau une riche collection dont l’aigle des singes (Pithecophaga jefferyi) dont le nom d’espèce célèbre le prénom de son père. Il tente de revenir aux Philippines en 1899 mais il doit abandonner ce projet à cause de la guerre hispano-américaine. Il part alors explorer l’île d’Hainan où il meurt de fièvres.
 C’est sans doute le climat de l’Écosse qui pousse John Whitehead (1860-1899) à passer deux hivers en Europe, le premier dans la région des Grisons en Suisse (1881) et le suivant en Corse (1882). Il chasse beaucoup à travers l’île et, de retour en Angleterre, montre ses prises à Richard Bowdler Sharpe (1847-1909) du British Museum. Celui-ci découvre que le jeune Whitehead a tiré un exemplaire d’une nouvelle espèce, un mâle de Sittelle corse (Sitta whiteheadi), puis une femelle. Dès le retour de la belle saison, il retourne en Corse bien décidé à tirer d’autres exemplaires de l’oiseau, ce qu’il fit mais en conservant secret le lieu exact de ses captures. Il fait paraître, en 1885, dans The Ibis, un article sur les oiseaux corses.
